--- a/combined_input.xlsx
+++ b/combined_input.xlsx
@@ -850,7 +850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -869,27 +869,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -918,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,26 +914,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -3005,7 +2981,7 @@
     <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -3021,7 +2997,7 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3038,7 +3014,7 @@
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3055,7 +3031,7 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
@@ -3070,7 +3046,7 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3087,7 +3063,7 @@
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
@@ -3102,7 +3078,7 @@
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3119,7 +3095,7 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
@@ -3134,7 +3110,7 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
@@ -3149,7 +3125,7 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
@@ -3164,7 +3140,7 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3181,7 +3157,7 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
@@ -3196,7 +3172,7 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
@@ -3211,7 +3187,7 @@
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
@@ -3226,7 +3202,7 @@
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3243,7 +3219,7 @@
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
@@ -3258,7 +3234,7 @@
       <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3275,7 +3251,7 @@
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
@@ -3290,7 +3266,7 @@
       <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
@@ -3305,7 +3281,7 @@
       <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
@@ -3320,7 +3296,7 @@
       <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3337,7 +3313,7 @@
       <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3358,24 +3334,24 @@
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="17.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3383,11 +3359,11 @@
         <v>23</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3395,7 +3371,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3407,9 +3383,11 @@
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -3417,7 +3395,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3429,9 +3407,9 @@
         <v>30</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="D6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -3439,7 +3417,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3451,9 +3429,9 @@
         <v>34</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="D8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3439,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3473,9 +3451,9 @@
         <v>36</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="D10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3461,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>5</v>
       </c>
     </row>
